--- a/utilitarios_game/Bestiario.xlsx
+++ b/utilitarios_game/Bestiario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUPORTE 03\Desktop\EU\Eu (Carlos)\Cod_Dev\Masmorra_fim\utilitarios_game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87781FD5-1D96-4B10-AC7B-584F8635F88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075A1618-610D-4253-A729-539587439F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-60" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bestiario" sheetId="1" r:id="rId1"/>
@@ -572,9 +572,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -625,6 +622,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -939,7 +939,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,24 +957,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
     </row>
     <row r="2" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -1007,12 +1007,12 @@
       <c r="J2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
     </row>
     <row r="3" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -1021,16 +1021,16 @@
       <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="38">
         <v>30</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="38">
         <v>25</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="38">
         <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -1045,12 +1045,12 @@
       <c r="J3" s="3">
         <v>1</v>
       </c>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
     </row>
     <row r="4" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -1059,16 +1059,16 @@
       <c r="B4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="38">
         <v>35</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="38">
         <v>28</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="38">
         <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -1083,12 +1083,12 @@
       <c r="J4" s="3">
         <v>1</v>
       </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
     </row>
     <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1097,16 +1097,16 @@
       <c r="B5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="38">
         <v>45</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="38">
         <v>33</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="38">
         <v>45</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="38">
         <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -1121,12 +1121,12 @@
       <c r="J5" s="4">
         <v>3</v>
       </c>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="29"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="28"/>
     </row>
     <row r="6" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -1135,16 +1135,16 @@
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="38">
         <v>100</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="38">
         <v>36</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="38">
         <v>45</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="38">
         <v>80</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -1159,12 +1159,12 @@
       <c r="J6" s="4">
         <v>3</v>
       </c>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
     </row>
     <row r="7" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -1173,16 +1173,16 @@
       <c r="B7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="38">
         <v>90</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="38">
         <v>38</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="38">
         <v>50</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="38">
         <v>45</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -1205,16 +1205,16 @@
       <c r="B8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="38">
         <v>70</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="38">
         <v>39</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="38">
         <v>20</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="38">
         <v>30</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -1237,16 +1237,16 @@
       <c r="B9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="38">
         <v>80</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="38">
         <v>30</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="38">
         <v>30</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="38">
         <v>60</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -1269,16 +1269,16 @@
       <c r="B10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="38">
         <v>120</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="38">
         <v>40</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="38">
         <v>40</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="38">
         <v>50</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -1302,16 +1302,16 @@
       <c r="B11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="38">
         <v>120</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="38">
         <v>45</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="38">
         <v>80</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -1335,16 +1335,16 @@
       <c r="B12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="38">
         <v>120</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="38">
         <v>55</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="38">
         <v>80</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1368,16 +1368,16 @@
       <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="38">
         <v>80</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="38">
         <v>42</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="38">
         <v>50</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -1400,16 +1400,16 @@
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="38">
         <v>100</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="38">
         <v>50</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="38">
         <v>100</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="38">
         <v>70</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -1432,16 +1432,16 @@
       <c r="B15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="38">
         <v>100</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="38">
         <v>44</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="38">
         <v>30</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="38">
         <v>80</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -1464,16 +1464,16 @@
       <c r="B16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="38">
         <v>100</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="38">
         <v>53</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="38">
         <v>30</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="38">
         <v>80</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -1496,16 +1496,16 @@
       <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="38">
         <v>120</v>
       </c>
-      <c r="D17" s="20">
-        <v>55</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="D17" s="38">
+        <v>57</v>
+      </c>
+      <c r="E17" s="38">
         <v>80</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="38">
         <v>70</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -1528,17 +1528,17 @@
       <c r="B18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="2">
-        <v>70</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="C18" s="38">
+        <v>80</v>
+      </c>
+      <c r="D18" s="38">
         <v>45</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="2">
-        <v>60</v>
+      <c r="F18" s="38">
+        <v>66</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>46</v>
@@ -1560,17 +1560,17 @@
       <c r="B19" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="2">
-        <v>50</v>
-      </c>
-      <c r="D19" s="20">
+      <c r="C19" s="38">
+        <v>70</v>
+      </c>
+      <c r="D19" s="38">
         <v>47</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="2">
-        <v>40</v>
+      <c r="F19" s="38">
+        <v>59</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>46</v>
@@ -1592,16 +1592,16 @@
       <c r="B20" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="38">
         <v>110</v>
       </c>
-      <c r="D20" s="2">
-        <v>57</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="D20" s="38">
+        <v>60</v>
+      </c>
+      <c r="E20" s="38">
         <v>80</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="38">
         <v>80</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -1624,16 +1624,16 @@
       <c r="B21" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="38">
         <v>120</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="38">
         <v>57</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="38">
         <v>80</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="38">
         <v>70</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -1656,16 +1656,16 @@
       <c r="B22" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="38">
         <v>120</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="38">
         <v>57</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="38">
         <v>90</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="38">
         <v>80</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -1688,16 +1688,16 @@
       <c r="B23" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="38">
         <v>150</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="38">
         <v>60</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="38">
         <v>80</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="38">
         <v>70</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -1720,16 +1720,16 @@
       <c r="B24" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="38">
         <v>110</v>
       </c>
-      <c r="D24" s="20">
-        <v>40</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="D24" s="38">
+        <v>56</v>
+      </c>
+      <c r="E24" s="38">
         <v>80</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="38">
         <v>60</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -1752,16 +1752,16 @@
       <c r="B25" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="38">
         <v>200</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="38">
         <v>70</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="38">
         <v>90</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="38">
         <v>80</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -1800,14 +1800,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1830,16 +1830,16 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="35" t="s">
         <v>73</v>
       </c>
       <c r="E3" s="14" t="s">
@@ -1850,16 +1850,16 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="35" t="s">
         <v>69</v>
       </c>
       <c r="E4" s="14" t="s">
@@ -1870,16 +1870,16 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="35" t="s">
         <v>68</v>
       </c>
       <c r="E5" s="14" t="s">
@@ -1890,16 +1890,16 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="35" t="s">
         <v>69</v>
       </c>
       <c r="E6" s="14" t="s">
@@ -1910,7 +1910,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M9" s="38"/>
+      <c r="M9" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/utilitarios_game/Bestiario.xlsx
+++ b/utilitarios_game/Bestiario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUPORTE 03\Desktop\EU\Eu (Carlos)\Cod_Dev\Masmorra_fim\utilitarios_game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075A1618-610D-4253-A729-539587439F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93220AF4-3F1D-49A2-8FB8-55AABA3C1E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-60" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bestiario" sheetId="1" r:id="rId1"/>
@@ -513,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -572,34 +572,10 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -624,6 +600,24 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -939,7 +933,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,24 +951,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
     </row>
     <row r="2" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -1007,12 +1001,12 @@
       <c r="J2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
     </row>
     <row r="3" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -1021,16 +1015,16 @@
       <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="30">
         <v>30</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="30">
         <v>25</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F3" s="30">
         <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -1045,12 +1039,12 @@
       <c r="J3" s="3">
         <v>1</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
     </row>
     <row r="4" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -1059,16 +1053,16 @@
       <c r="B4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="30">
         <v>35</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="30">
         <v>28</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="30">
         <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -1083,12 +1077,12 @@
       <c r="J4" s="3">
         <v>1</v>
       </c>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
     </row>
     <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1097,16 +1091,16 @@
       <c r="B5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="30">
         <v>45</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="30">
         <v>33</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="30">
         <v>45</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="30">
         <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -1121,12 +1115,12 @@
       <c r="J5" s="4">
         <v>3</v>
       </c>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="28"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="17"/>
     </row>
     <row r="6" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -1135,16 +1129,16 @@
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="30">
         <v>100</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="30">
         <v>36</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="30">
         <v>45</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="30">
         <v>80</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -1159,12 +1153,12 @@
       <c r="J6" s="4">
         <v>3</v>
       </c>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
     </row>
     <row r="7" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -1173,16 +1167,16 @@
       <c r="B7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="30">
         <v>90</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="30">
         <v>38</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="30">
         <v>50</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="30">
         <v>45</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -1205,16 +1199,16 @@
       <c r="B8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="30">
         <v>70</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="30">
         <v>39</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="30">
         <v>20</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="30">
         <v>30</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -1237,16 +1231,16 @@
       <c r="B9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="30">
         <v>80</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="30">
         <v>30</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="30">
         <v>30</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="30">
         <v>60</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -1269,16 +1263,16 @@
       <c r="B10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="30">
         <v>120</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="30">
         <v>40</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="30">
         <v>40</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="30">
         <v>50</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -1302,16 +1296,16 @@
       <c r="B11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="30">
         <v>120</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="30">
         <v>45</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="30">
         <v>80</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -1335,16 +1329,16 @@
       <c r="B12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="30">
         <v>120</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="30">
         <v>55</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="30">
         <v>80</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1368,16 +1362,16 @@
       <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="30">
         <v>80</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="30">
         <v>42</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="30">
         <v>50</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -1400,16 +1394,16 @@
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="30">
         <v>100</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="30">
         <v>50</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="30">
         <v>100</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="30">
         <v>70</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -1432,16 +1426,16 @@
       <c r="B15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="30">
         <v>100</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="30">
         <v>44</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="30">
         <v>30</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="30">
         <v>80</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -1464,16 +1458,16 @@
       <c r="B16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="30">
         <v>100</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="30">
         <v>53</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="30">
         <v>30</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="30">
         <v>80</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -1496,16 +1490,16 @@
       <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="30">
         <v>120</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="30">
         <v>57</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="30">
         <v>80</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="30">
         <v>70</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -1528,16 +1522,16 @@
       <c r="B18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="30">
         <v>80</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="30">
         <v>45</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="30">
         <v>66</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -1560,16 +1554,16 @@
       <c r="B19" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="30">
         <v>70</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="30">
         <v>47</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="30">
         <v>59</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -1592,16 +1586,16 @@
       <c r="B20" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="30">
         <v>110</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="30">
         <v>60</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="30">
         <v>80</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="30">
         <v>80</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -1624,16 +1618,16 @@
       <c r="B21" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="30">
         <v>120</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="30">
         <v>57</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="30">
         <v>80</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21" s="30">
         <v>70</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -1656,16 +1650,16 @@
       <c r="B22" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C22" s="30">
         <v>120</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="30">
         <v>57</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="30">
         <v>90</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F22" s="30">
         <v>80</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -1688,16 +1682,16 @@
       <c r="B23" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="30">
         <v>150</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="30">
         <v>60</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="30">
         <v>80</v>
       </c>
-      <c r="F23" s="38">
+      <c r="F23" s="30">
         <v>70</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -1720,16 +1714,16 @@
       <c r="B24" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="38">
+      <c r="C24" s="30">
         <v>110</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="30">
         <v>56</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E24" s="30">
         <v>80</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="30">
         <v>60</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -1752,16 +1746,16 @@
       <c r="B25" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="38">
+      <c r="C25" s="30">
         <v>200</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="30">
         <v>70</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="30">
         <v>90</v>
       </c>
-      <c r="F25" s="38">
+      <c r="F25" s="30">
         <v>80</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -1790,7 +1784,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1800,14 +1794,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1830,16 +1824,16 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="27" t="s">
         <v>73</v>
       </c>
       <c r="E3" s="14" t="s">
@@ -1850,16 +1844,16 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="27" t="s">
         <v>69</v>
       </c>
       <c r="E4" s="14" t="s">
@@ -1870,16 +1864,16 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="27" t="s">
         <v>68</v>
       </c>
       <c r="E5" s="14" t="s">
@@ -1890,16 +1884,16 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="27" t="s">
         <v>69</v>
       </c>
       <c r="E6" s="14" t="s">
@@ -1910,7 +1904,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M9" s="37"/>
+      <c r="M9" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/utilitarios_game/Bestiario.xlsx
+++ b/utilitarios_game/Bestiario.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUPORTE 03\Desktop\EU\Eu (Carlos)\Cod_Dev\Masmorra_fim\utilitarios_game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pasta Dev\Masmorra_fim\utilitarios_game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93220AF4-3F1D-49A2-8FB8-55AABA3C1E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76F666F-2E1D-4D82-A7D2-ED8D3B7DC7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-60" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bestiario" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="82">
   <si>
     <t>nome</t>
   </si>
@@ -249,13 +249,31 @@
   </si>
   <si>
     <t>7_2</t>
+  </si>
+  <si>
+    <t>Velthurion, o Artesão Infernal</t>
+  </si>
+  <si>
+    <t>Demonio</t>
+  </si>
+  <si>
+    <t>Lança chamas</t>
+  </si>
+  <si>
+    <t>Baú Mímico</t>
+  </si>
+  <si>
+    <t>item monstro</t>
+  </si>
+  <si>
+    <t>Engolir</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,8 +415,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,6 +458,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -618,6 +656,15 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -930,27 +977,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" customWidth="1"/>
-    <col min="19" max="19" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" customWidth="1"/>
+    <col min="7" max="7" width="46.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.88671875" customWidth="1"/>
+    <col min="19" max="19" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="31" t="s">
         <v>51</v>
       </c>
@@ -970,7 +1017,7 @@
       <c r="P1" s="21"/>
       <c r="Q1" s="21"/>
     </row>
-    <row r="2" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -1008,7 +1055,7 @@
       <c r="P2" s="20"/>
       <c r="Q2" s="20"/>
     </row>
-    <row r="3" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1046,7 +1093,7 @@
       <c r="P3" s="16"/>
       <c r="Q3" s="16"/>
     </row>
-    <row r="4" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1084,7 +1131,7 @@
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
     </row>
-    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1122,7 +1169,7 @@
       <c r="P5" s="16"/>
       <c r="Q5" s="17"/>
     </row>
-    <row r="6" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1160,7 +1207,7 @@
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
     </row>
-    <row r="7" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1192,7 +1239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1224,7 +1271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1256,7 +1303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1289,7 +1336,7 @@
       </c>
       <c r="S10" s="16"/>
     </row>
-    <row r="11" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1322,7 +1369,7 @@
       </c>
       <c r="S11" s="16"/>
     </row>
-    <row r="12" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>50</v>
       </c>
@@ -1355,7 +1402,7 @@
       </c>
       <c r="S12" s="17"/>
     </row>
-    <row r="13" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1387,7 +1434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>74</v>
       </c>
@@ -1419,7 +1466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -1451,7 +1498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -1483,7 +1530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -1515,7 +1562,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -1547,7 +1594,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -1579,7 +1626,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -1611,7 +1658,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
@@ -1643,7 +1690,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
@@ -1675,7 +1722,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>61</v>
       </c>
@@ -1707,7 +1754,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>61</v>
       </c>
@@ -1739,7 +1786,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>71</v>
       </c>
@@ -1769,6 +1816,70 @@
       </c>
       <c r="J25" s="18" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="30">
+        <v>180</v>
+      </c>
+      <c r="D26" s="30">
+        <v>70</v>
+      </c>
+      <c r="E26" s="30">
+        <v>90</v>
+      </c>
+      <c r="F26" s="30">
+        <v>80</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" s="2">
+        <v>11</v>
+      </c>
+      <c r="I26" s="2">
+        <v>200</v>
+      </c>
+      <c r="J26" s="39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="30">
+        <v>40</v>
+      </c>
+      <c r="D27" s="30">
+        <v>30</v>
+      </c>
+      <c r="E27" s="30">
+        <v>0</v>
+      </c>
+      <c r="F27" s="30">
+        <v>60</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" s="2">
+        <v>50</v>
+      </c>
+      <c r="J27" s="39">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1776,6 +1887,7 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1787,13 +1899,13 @@
       <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="34" t="s">
         <v>60</v>
       </c>
@@ -1803,7 +1915,7 @@
       <c r="E1" s="35"/>
       <c r="F1" s="36"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1823,7 +1935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>27</v>
       </c>
@@ -1843,7 +1955,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>26</v>
       </c>
@@ -1863,7 +1975,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>52</v>
       </c>
@@ -1883,7 +1995,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>31</v>
       </c>
@@ -1903,7 +2015,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M9" s="29"/>
     </row>
   </sheetData>
